--- a/data/jfx_test.xlsx
+++ b/data/jfx_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F665D7-F319-0A45-8F1F-3A8F35395DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCC3FD3-ACCC-404C-B6F3-EF9AE71EC318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="1580" windowWidth="20740" windowHeight="12420" activeTab="3" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
+    <workbookView xWindow="8060" yWindow="1580" windowWidth="20740" windowHeight="12420" firstSheet="8" activeTab="13" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -447,42 +447,6 @@
     <rPh sb="4" eb="5">
       <t>tui song</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/busi/project/repay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"channel": "jfx",
-	"sourceCode": "jfx",
-	"projectId": "8381938",
-	"transactionId": "939919",
-	"sourceProjectId": "9939481",
-	"sourcePlanId": "93921939",
-	"sourceRepaymentId": "8764183",
-	"assetPlanOwner": 0,
-	"repaymentPlanId": "87366136",
-	"repayType": 1,
-	"planPayDate": "2019-01-01",
-	"payTime": "2019-01-01 01:01:01",
-	"period": 1,
-	"successAmount": 51500.00,
-	"overdueStatus": 0,
-	"fundingSource": 1,
-	"repaymentDetailList": [{
-		"sourceRepaymentDetailId": "636737",
-		"payAmount": 50000.00,
-		"planCategory": 1,
-		"remark": "本金"
-	}, {
-		"sourceRepaymentDetailId": "636737",
-		"payAmount": 1500.00,
-		"planCategory": 2,
-		"remark": "利息"
-	}]
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -742,6 +706,41 @@
 	"imageInfo": {
 		"salesContractImage": "http://gss0.baidu.com/94o3dSag_xI4khGko9WTAnF6hhy/zhidao/pic/item/64380cd7912397dd712239dc5e82b2b7d1a2878b.jpg"
 	}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/offline/repay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jfx",
+	"sourceCode": "jfx",
+	"projectId": "8381938",
+	"transactionId": "939919",
+	"sourceProjectId": "9939481",
+	"sourcePlanId": "93921939",
+	"sourceRepaymentId": "8764183",
+	"assetPlanOwner": 0,
+	"repaymentPlanId": "87366136",
+	"repayType": 1,
+	"planPayDate": "2019-01-01",
+	"period": 1,
+	"successAmount": 51500.00,
+	"overdueStatus": 0,
+	"paymentFlowSource": 1,
+	"repaymentDetailList": [{
+		"sourceRepaymentDetailId": "636737",
+		"payAmount": 50000.00,
+		"planCategory": 1,
+		"remark": "本金"
+	}, {
+		"sourceRepaymentDetailId": "636737",
+		"payAmount": 1500.00,
+		"planCategory": 2,
+		"remark": "利息"
+	}]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1171,7 +1170,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
@@ -1387,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B3A9E9-E4B6-AA48-9DC8-6454FD94A214}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1421,13 +1420,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E2" s="5">
         <v>2000</v>
@@ -1474,16 +1473,16 @@
     </row>
     <row r="2" spans="1:5" ht="340">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="5">
         <v>2000</v>
@@ -1618,7 +1617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49043AE3-6E7F-D149-BFFA-5E9CEA686BC3}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1662,7 +1661,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>

--- a/data/jfx_test.xlsx
+++ b/data/jfx_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCC3FD3-ACCC-404C-B6F3-EF9AE71EC318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCFA036-5E69-8C42-8FAB-BEC255FC3ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="1580" windowWidth="20740" windowHeight="12420" firstSheet="8" activeTab="13" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
+    <workbookView xWindow="8060" yWindow="1580" windowWidth="20740" windowHeight="12420" activeTab="3" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -1386,7 +1386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B3A9E9-E4B6-AA48-9DC8-6454FD94A214}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1617,7 +1617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49043AE3-6E7F-D149-BFFA-5E9CEA686BC3}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/data/jfx_test.xlsx
+++ b/data/jfx_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCFA036-5E69-8C42-8FAB-BEC255FC3ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D5A079-7ED4-E64F-814C-0290EBCCB119}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="1580" windowWidth="20740" windowHeight="12420" activeTab="3" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
+    <workbookView xWindow="8060" yWindow="1580" windowWidth="20740" windowHeight="12420" firstSheet="8" activeTab="13" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -1386,7 +1386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B3A9E9-E4B6-AA48-9DC8-6454FD94A214}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1617,7 +1617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49043AE3-6E7F-D149-BFFA-5E9CEA686BC3}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/data/jfx_test.xlsx
+++ b/data/jfx_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D5A079-7ED4-E64F-814C-0290EBCCB119}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B577A78-1550-BB4F-A0FF-5210591EA6AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="1580" windowWidth="20740" windowHeight="12420" firstSheet="8" activeTab="13" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
+    <workbookView xWindow="4860" yWindow="640" windowWidth="23640" windowHeight="15360" firstSheet="9" activeTab="14" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -1386,7 +1386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B3A9E9-E4B6-AA48-9DC8-6454FD94A214}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1442,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55061637-ECCC-514A-BDDF-9969E1EE8F69}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/jfx_test.xlsx
+++ b/data/jfx_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B577A78-1550-BB4F-A0FF-5210591EA6AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCE263F-D970-294E-8442-715A735C1C31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="640" windowWidth="23640" windowHeight="15360" firstSheet="9" activeTab="14" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
+    <workbookView xWindow="4860" yWindow="640" windowWidth="23640" windowHeight="15360" firstSheet="7" activeTab="14" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,8 @@
     <sheet name="receipts_notice" sheetId="12" r:id="rId12"/>
     <sheet name="user_repayment_plan" sheetId="13" r:id="rId13"/>
     <sheet name="repayment" sheetId="14" r:id="rId14"/>
-    <sheet name="cash_push" sheetId="15" r:id="rId15"/>
+    <sheet name="offline_repay" sheetId="16" r:id="rId15"/>
+    <sheet name="cash_push" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="56">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,32 +328,6 @@
   <si>
     <t>{
   "projectId": "10022797191479296"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询当前还款计划接口-正常传参</t>
-    <rPh sb="0" eb="1">
-      <t>cha xun dang qian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>huan kuan ji hua</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jie kou</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zheng chang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/busi/project/queryRepaymentPlan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "projectId":"10022797191479296"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,6 +715,66 @@
 		"payAmount": 1500.00,
 		"planCategory": 2,
 		"remark": "利息"
+	}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款计划试算</t>
+    <rPh sb="0" eb="1">
+      <t>fang kuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie guo cha xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/repaymentPlan/calculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jfx",
+	"sourceCode": "jfx",
+	"sourceUserId": "831992",
+	"transactionId": "84891",
+	"sourceProjectId": "83199",
+	"projectId": "4892001",
+	"businessType": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下还款流水推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jfx",
+	"sourceCode": "jfx",
+	"projectId": "488921939",
+	"transactionId": "9123904034",
+	"sourceProjectId": "818239",
+	"sourcePlanId": "839193",
+	"sourceRepaymentId": "1823993",
+	"assetPlanOwner": 0,
+	"repayType": 1,
+	"planPayDate": "2019-11-22",
+	"payTime": "2019-10-22",
+	"period": 1,
+	"successAmount": 3333.33,
+	"overdueStatus": 0,
+	"paymentFlowSource": 3,
+	"repaymentDetailList": [{
+		"sourceRepaymentDetailId": "8499103",
+		"payAmount": 3333.00,
+		"planCategory": 1
+	}, {
+		"sourceRepaymentDetailId": "8499103",
+		"repaymentPlanId": "31990321",
+		"payAmount": 0.33,
+		"planCategory": 2
 	}]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1170,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
@@ -1187,10 +1222,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -1209,7 +1250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="204">
+    <row r="2" spans="1:5" ht="119">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1237,10 +1278,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -1259,18 +1306,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="204">
+    <row r="2" spans="1:5" ht="153">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -1291,6 +1338,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -1311,16 +1361,16 @@
     </row>
     <row r="2" spans="1:5" ht="204">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -1341,6 +1391,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -1361,16 +1414,16 @@
     </row>
     <row r="2" spans="1:5" ht="409.6">
       <c r="A2" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E2" s="5">
         <v>2000</v>
@@ -1417,16 +1470,16 @@
     </row>
     <row r="2" spans="1:5" ht="409.6">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2" s="5">
         <v>2000</v>
@@ -1439,10 +1492,66 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02405C3D-1081-DE49-A55A-01941572281F}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.6">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55061637-ECCC-514A-BDDF-9969E1EE8F69}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1473,16 +1582,16 @@
     </row>
     <row r="2" spans="1:5" ht="340">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="5">
         <v>2000</v>
@@ -1661,7 +1770,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>

--- a/data/jfx_test.xlsx
+++ b/data/jfx_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCE263F-D970-294E-8442-715A735C1C31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DB8680-889B-DF43-8089-8CD24E74F235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="640" windowWidth="23640" windowHeight="15360" firstSheet="7" activeTab="14" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
+    <workbookView xWindow="4860" yWindow="640" windowWidth="23640" windowHeight="15360" firstSheet="7" activeTab="9" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="contract_query" sheetId="7" r:id="rId7"/>
     <sheet name="project_loan" sheetId="8" r:id="rId8"/>
     <sheet name="pfa_query" sheetId="9" r:id="rId9"/>
-    <sheet name="pre_clear_calculate" sheetId="10" r:id="rId10"/>
+    <sheet name="calculate" sheetId="10" r:id="rId10"/>
     <sheet name="repayment_plan" sheetId="11" r:id="rId11"/>
     <sheet name="receipts_notice" sheetId="12" r:id="rId12"/>
     <sheet name="user_repayment_plan" sheetId="13" r:id="rId13"/>
@@ -299,35 +299,6 @@
  "channel":"jfx",
  "sourceCode":"jfx",
  "serviceSn":"154790"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提前结清试算接口-正常传参</t>
-    <rPh sb="0" eb="1">
-      <t>ti qian jie qing</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi suan</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zheng chang</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>chuan can</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>can shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/busi/project/preClearCalculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "projectId": "10022797191479296"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -776,6 +747,29 @@
 		"payAmount": 0.33,
 		"planCategory": 2
 	}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国投云贷还款计划查询</t>
+    <rPh sb="0" eb="1">
+      <t>fang kuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie guo cha xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/project/queryRepaymentPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jfx",
+	"sourceCode": "jfx",
+	"transactionId": "39190",
+	"projectId": "383993201"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1205,7 +1199,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
@@ -1221,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB829A4E-DF9D-5545-9A64-CF872FE64812}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1250,18 +1244,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="119">
+    <row r="2" spans="1:5" ht="153">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -1278,7 +1272,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1306,18 +1300,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153">
+    <row r="2" spans="1:5" ht="102">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -1361,16 +1355,16 @@
     </row>
     <row r="2" spans="1:5" ht="204">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -1414,16 +1408,16 @@
     </row>
     <row r="2" spans="1:5" ht="409.6">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E2" s="5">
         <v>2000</v>
@@ -1470,16 +1464,16 @@
     </row>
     <row r="2" spans="1:5" ht="409.6">
       <c r="A2" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E2" s="5">
         <v>2000</v>
@@ -1495,7 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02405C3D-1081-DE49-A55A-01941572281F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1526,16 +1520,16 @@
     </row>
     <row r="2" spans="1:5" ht="409.6">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -1582,16 +1576,16 @@
     </row>
     <row r="2" spans="1:5" ht="340">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5">
         <v>2000</v>
@@ -1770,7 +1764,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>

--- a/data/jfx_test.xlsx
+++ b/data/jfx_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DB8680-889B-DF43-8089-8CD24E74F235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCF858F-4674-AB4D-8AC3-FD4748AFB20F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="640" windowWidth="23640" windowHeight="15360" firstSheet="7" activeTab="9" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
+    <workbookView xWindow="4860" yWindow="640" windowWidth="23640" windowHeight="15360" firstSheet="7" activeTab="14" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -751,25 +751,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国投云贷还款计划查询</t>
+    <t>/api/v1/busi/project/queryRepaymentPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询当前还款计划接口-正常传参</t>
     <rPh sb="0" eb="1">
-      <t>fang kuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie guo cha xun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/busi/project/queryRepaymentPlan</t>
+      <t>cha xun dang qian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huan kuan ji hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zheng chang</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
-	"channel": "jfx",
-	"sourceCode": "jfx",
-	"transactionId": "39190",
-	"projectId": "383993201"
+  "projectId":"10022797191479296"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1215,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB829A4E-DF9D-5545-9A64-CF872FE64812}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1272,7 +1275,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1300,12 +1303,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="102">
+    <row r="2" spans="1:5" ht="85">
       <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
@@ -1489,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02405C3D-1081-DE49-A55A-01941572281F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/jfx_test.xlsx
+++ b/data/jfx_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCF858F-4674-AB4D-8AC3-FD4748AFB20F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D756B20-A47F-F34E-947F-CDC849A8439C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="640" windowWidth="23640" windowHeight="15360" firstSheet="7" activeTab="14" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
+    <workbookView xWindow="4860" yWindow="640" windowWidth="23640" windowHeight="15360" activeTab="3" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -1492,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02405C3D-1081-DE49-A55A-01941572281F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1723,7 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49043AE3-6E7F-D149-BFFA-5E9CEA686BC3}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1938,6 +1938,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/data/jfx_test.xlsx
+++ b/data/jfx_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D756B20-A47F-F34E-947F-CDC849A8439C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7908D362-CF2C-E24D-A805-DC2028DABDC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="640" windowWidth="23640" windowHeight="15360" activeTab="3" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
+    <workbookView xWindow="4860" yWindow="640" windowWidth="23640" windowHeight="15360" firstSheet="8" activeTab="16" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="repayment" sheetId="14" r:id="rId14"/>
     <sheet name="offline_repay" sheetId="16" r:id="rId15"/>
     <sheet name="cash_push" sheetId="15" r:id="rId16"/>
+    <sheet name="apply_cancel" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="59">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -773,6 +774,23 @@
   <si>
     <t>{
   "projectId":"10022797191479296"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/project/cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel" : "jfx",
+  "sourceCode" : "jfx",
+  "sourceProjectId" : "string",
+  "projectId" : "string"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1548,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55061637-ECCC-514A-BDDF-9969E1EE8F69}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1589,6 +1607,62 @@
       </c>
       <c r="D2" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16A4BC4-836E-A342-933C-B7FC9C1A510B}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="102">
+      <c r="A2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E2" s="5">
         <v>2000</v>
@@ -1723,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49043AE3-6E7F-D149-BFFA-5E9CEA686BC3}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1959,7 +2033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6">
+    <row r="2" spans="1:5" ht="323">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>

--- a/data/jfx_test.xlsx
+++ b/data/jfx_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7908D362-CF2C-E24D-A805-DC2028DABDC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55E9734-97BA-2F48-9F0A-44498E8100B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="640" windowWidth="23640" windowHeight="15360" firstSheet="8" activeTab="16" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
+    <workbookView xWindow="4860" yWindow="640" windowWidth="23640" windowHeight="15360" activeTab="3" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="cash_push" sheetId="15" r:id="rId16"/>
     <sheet name="apply_cancel" sheetId="17" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="60">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,24 +427,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/api/v1/busi/offline/repay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 	"channel": "jfx",
 	"sourceCode": "jfx",
-	"sourceUserId": "929",
-	"transactionId": "010203",
-	"serviceSn": "1923",
+	"projectId": "8381938",
+	"transactionId": "939919",
+	"sourceProjectId": "9939481",
+	"sourcePlanId": "93921939",
+	"sourceRepaymentId": "8764183",
+	"assetPlanOwner": 0,
+	"repaymentPlanId": "87366136",
+	"repayType": 1,
+	"planPayDate": "2019-01-01",
+	"period": 1,
+	"successAmount": 51500.00,
+	"overdueStatus": 0,
+	"paymentFlowSource": 1,
+	"repaymentDetailList": [{
+		"sourceRepaymentDetailId": "636737",
+		"payAmount": 50000.00,
+		"planCategory": 1,
+		"remark": "本金"
+	}, {
+		"sourceRepaymentDetailId": "636737",
+		"payAmount": 1500.00,
+		"planCategory": 2,
+		"remark": "利息"
+	}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款计划试算</t>
+    <rPh sb="0" eb="1">
+      <t>fang kuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie guo cha xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/repaymentPlan/calculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jfx",
+	"sourceCode": "jfx",
+	"sourceUserId": "831992",
+	"transactionId": "84891",
+	"sourceProjectId": "83199",
+	"projectId": "4892001",
+	"businessType": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下还款流水推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jfx",
+	"sourceCode": "jfx",
+	"projectId": "488921939",
+	"transactionId": "9123904034",
+	"sourceProjectId": "818239",
+	"sourcePlanId": "839193",
+	"sourceRepaymentId": "1823993",
+	"assetPlanOwner": 0,
+	"repayType": 1,
+	"planPayDate": "2019-11-22",
+	"payTime": "2019-10-22",
+	"period": 1,
+	"successAmount": 3333.33,
+	"overdueStatus": 0,
+	"paymentFlowSource": 3,
+	"repaymentDetailList": [{
+		"sourceRepaymentDetailId": "8499103",
+		"payAmount": 3333.00,
+		"planCategory": 1
+	}, {
+		"sourceRepaymentDetailId": "8499103",
+		"repaymentPlanId": "31990321",
+		"payAmount": 0.33,
+		"planCategory": 2
+	}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/project/queryRepaymentPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询当前还款计划接口-正常传参</t>
+    <rPh sb="0" eb="1">
+      <t>cha xun dang qian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huan kuan ji hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zheng chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "projectId":"10022797191479296"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/busi/project/cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel" : "jfx",
+  "sourceCode" : "jfx",
+  "sourceProjectId" : "string",
+  "projectId" : "string"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"channel": "jfx",
+	"sourceCode": "jfx",
+	"sourceUserId": "48445",
+	"transactionId": "5287276226970207686",
+	"serviceSn": "6714203301",
 	"applyInfo": {
-		"applyTime": "2019-01-01 01:01:01",
+		"applyTime": "2021-03-23 15:24:26",
 		"productGroup": "1099",
 		"applySource": "api",
 		"financeChannel": 1
 	},
+	"creditInfo": {
+		"sourceCreditAmt": 300000.0,
+		"auditResult": 1,
+		"rejectReason": "拒绝原因"
+	},
 	"personalInfo": {
-		"cardNum": "372301199901014811",
-		"custName": "张三",
+		"cardNum": "131001196601061647",
+		"custName": "杨丽华",
 		"phone": "15555555555",
 		"education": 5,
-		"sex": 0,
+		"sex": "M",
 		"age": 25,
 		"maritalStatus": 2,
 		"hasChildren": 0,
@@ -456,7 +599,7 @@
 		"liveDetailAddress": "北京市",
 		"monthIncome": 2,
 		"applicantClinicRelationship": 1,
-		"isDoctor": 1,
+		"isDoctor": 0,
 		"professionalTitle": 3,
 		"position": 1,
 		"workingYear": 3,
@@ -465,10 +608,7 @@
 		"isHavingOtherCompany": 0,
 		"otherCompanyNumber": 0,
 		"otherCompanyName": "无",
-		"personalEmail": "123@163.com",
-		"otherContactName": "李四",
-		"otherContactRelationship": 5,
-		"otherContactPhone": "13333333333"
+		"personalEmail": "123@163.com"
 	},
 	"bindingCardInfo": {
 		"bankCode": "34",
@@ -483,7 +623,10 @@
 		"firstContactRelationship": 2,
 		"firstContactName": "王二",
 		"firstContactCardNum": "420101196103214835",
-		"firstContactPhone": "13444442222"
+		"firstContactPhone": "13444442222",
+		"otherContactName": "李四",
+		"otherContactRelationship": 5,
+		"otherContactPhone": "13333333333"
 	},
 	"entityInfo": {
 		"clinicName": "好不了牙科诊所",
@@ -494,8 +637,8 @@
 		"openingDate": "2018-01-01",
 		"isChainInstitution": "Y",
 		"chainInstitutionNumber": 1,
-		"annualRunningWater": 2000000.00,
-		"inspectionEquipment": 4,
+		"annualRunningWater": 2000000.0,
+		"inspectionEquipment": "4",
 		"chairNumber": 10,
 		"doctorNumber": 3,
 		"operateSiteOwnership": 1,
@@ -505,7 +648,44 @@
 		"legalPersonPhone": "15822113399",
 		"legalPersonIdcard": "1298493210",
 		"enterpriseCertificateType": 1,
-		"enterpriseCertificateNum" : "2138910"
+		"enterpriseCertificateNum": "3298682534451313934",
+		"unifiedSocialCreditCode": "000000000000000000",
+		"permitRegistrationNumber": "000000000000000000",
+		"otherInspectionEquipment": "高端设备",
+		"hospitalCategory": 1,
+		"isAddressConsistent": 1,
+		"registerAddressProvince": "110000",
+		"registerAddressCity": "110100",
+		"registerAddressBorough": "110105",
+		"registerDetailAddress": "详细地址",
+		"isHighRiskArea": 0,
+		"cityGrading": 2,
+		"businessLicenseValidDate": "2020-01-01-2021-01-01",
+		"establishYears": 1,
+		"brandName": "品牌名称",
+		"decorateGrade": 1,
+		"companyScale": 1,
+		"clinicalMedicalResources": 1,
+		"isFieldTrip": 1,
+		"cooperationalYears": 2,
+		"purchaseTimesInRecentYears": 1,
+		"purchaseAmountInRecentYears": 1,
+		"clinicTotalLoanAmount": 1111.12,
+		"clinicTotalLoanCount": 10,
+		"clinicFirstLoanDate": "2021-01-02",
+		"clinicHistoryCreditAmount": 288888.0,
+		"clinicCurrentOverdueDays": 20,
+		"clinicOverdueTimesMoreThan5": 0,
+		"clinicOriginalLevel": 3,
+		"clinicTradingLevel": 4,
+		"supplierOriginalLevel": 6,
+		"supplierTradingLevel": 5,
+		"jfxHistoryCreditAmount": 150000.0,
+		"jfxHistoryOrderNum": 5,
+		"clinicHistorySupplierNum": 12,
+		"sourceUserProductType": 1,
+		"supplierName": "经销商",
+		"supplierUnifiedSocialCreditCode": "12839914915"
 	},
 	"imageInfo": {
 		"frontPhotoOfIDCard": "http://5b0988e595225.cdn.sohucs.com/images/20190703/213be8a9118d46978208d7f8c5eefa50.jpeg",
@@ -531,6 +711,20 @@
   </si>
   <si>
     <t>{
+  "channel": "jfx",
+  "sourceCode": "jfx",
+  "serviceSn": "1547904999999",
+  "sourceUserId": "45",
+  "contractType": 14,
+  "sourceContractId": "123423007",
+  "associationId": "7980652574031872",
+  "transactionId": "Test_45",
+  "content": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
 	"channel": "jfx",
 	"sourceCode": "jfx",
 	"sourceUserId": "16471",
@@ -543,7 +737,8 @@
 		"applicationPeriod": 60,
 		"productCode": "XJ_JFX_YYDSIN",
 		"applySource": "api",
-		"financeChannel": 1
+		"financeChannel": 1,
+		"productGroup": 1099
 	},
 	"loanInfo": {
 		"loanAmount": 50000.0,
@@ -573,7 +768,7 @@
 		"custName": "凌禹佳",
 		"phone": "15514390545",
 		"education": 5,
-		"sex": 0,
+		"sex": "M",
 		"age": 25,
 		"maritalStatus": 2,
 		"hasChildren": 0,
@@ -595,17 +790,21 @@
 		"otherCompanyNumber": 0,
 		"otherCompanyName": "无",
 		"personalEmail": "123@163.com",
+		"deliveryAddressProvince": "110000",
+		"deliveryAddressCity": "110100",
+		"deliveryAddressBorough": "110105",
+		"deliveryDetailAddress": "收货地址",
+		"consigneeName": "收货联系人",
+		"consigneePhone": "18833331111"
+	},
+	"contactInfo": {
+		"firstContactRelationship": 2,
+		"firstContactName": "王二",
+		"firstContactCardNum": "420101197407188511",
+		"firstContactPhone": "13444442222",
 		"otherContactName": "李四",
 		"otherContactRelationship": 5,
 		"otherContactPhone": "13333333333"
-	},
-	"contactInfo": {
-		"spouseName": "王二",
-		"spouseCardNum": "420101197407188511",
-		"firstContactRelationship": 2,
-		"firstContactName": "王二",
-		"firstContactCardNum": "420101197407188511",
-		"firstContactPhone": "13444442222"
 	},
 	"bindingCardInfo": {
 		"bankCode": "34",
@@ -634,163 +833,47 @@
 		"legalPersonPhone": "15822113399",
 		"legalPersonIdcard": "1298493210",
 		"enterpriseCertificateType": 1,
-		"enterpriseCertificateNum": "19391"
+		"enterpriseCertificateNum": "19391",
+		"unifiedSocialCreditCode": "9140003054",
+		"permitRegistrationNumber": "000000000000000000",
+		"consumeAmount": 3333.33,
+		"downPayment": 5555.55,
+		"clinicOriginalLevel": 1,
+		"clinicTradingLevel": 2,
+		"supplierOriginalLevel": 3,
+		"supplierTradingLevel": 4,
+		"supplierCompanyBadAccountRate": 3.33,
+		"supplierDepositLowestRate": 1.11,
+		"supplierLowestDepositPayment": 11111.00,
+		"supplierEstablishYears": 1,
+		"supplierProprietorRealCity": "110000",
+		"supplierProprietorRealCityLevel": 1,
+		"supplierAccessWay": 1,
+		"supplierLegalPersonName": "经销商法人",
+		"supplierLegalPersonIdcard": "372301199509074811",
+		"supplierLegalPersonPhone": "15533330202",
+		"supplierName": "经销商名称",
+		"supplierUnifiedSocialCreditCode": "485919032"
 	},
 	"loanUsageInfo": {
 		"totalAmount": 200000.0,
 		"date": "2019-01-01",
 		"allProductNumber": 2,
 		"saleProductDetailList": [{
-			"unitPriceAmount": 100000.0,
-			"productName": "产品名称123",
-			"singleProductNumber": 5
-		}, {
-			"unitPriceAmount": 200000.0,
-			"productName": "产品名称456",
-			"singleProductNumber": 3
-		}]
+				"unitPriceAmount": 100000.0,
+				"productName": "产品名称123",
+				"singleProductNumber": 5
+			},
+			{
+				"unitPriceAmount": 200000.0,
+				"productName": "产品名称456",
+				"singleProductNumber": 3
+			}
+		]
 	},
 	"imageInfo": {
 		"salesContractImage": "http://gss0.baidu.com/94o3dSag_xI4khGko9WTAnF6hhy/zhidao/pic/item/64380cd7912397dd712239dc5e82b2b7d1a2878b.jpg"
 	}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/busi/offline/repay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"channel": "jfx",
-	"sourceCode": "jfx",
-	"projectId": "8381938",
-	"transactionId": "939919",
-	"sourceProjectId": "9939481",
-	"sourcePlanId": "93921939",
-	"sourceRepaymentId": "8764183",
-	"assetPlanOwner": 0,
-	"repaymentPlanId": "87366136",
-	"repayType": 1,
-	"planPayDate": "2019-01-01",
-	"period": 1,
-	"successAmount": 51500.00,
-	"overdueStatus": 0,
-	"paymentFlowSource": 1,
-	"repaymentDetailList": [{
-		"sourceRepaymentDetailId": "636737",
-		"payAmount": 50000.00,
-		"planCategory": 1,
-		"remark": "本金"
-	}, {
-		"sourceRepaymentDetailId": "636737",
-		"payAmount": 1500.00,
-		"planCategory": 2,
-		"remark": "利息"
-	}]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还款计划试算</t>
-    <rPh sb="0" eb="1">
-      <t>fang kuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie guo cha xun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/busi/repaymentPlan/calculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"channel": "jfx",
-	"sourceCode": "jfx",
-	"sourceUserId": "831992",
-	"transactionId": "84891",
-	"sourceProjectId": "83199",
-	"projectId": "4892001",
-	"businessType": 1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线下还款流水推送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"channel": "jfx",
-	"sourceCode": "jfx",
-	"projectId": "488921939",
-	"transactionId": "9123904034",
-	"sourceProjectId": "818239",
-	"sourcePlanId": "839193",
-	"sourceRepaymentId": "1823993",
-	"assetPlanOwner": 0,
-	"repayType": 1,
-	"planPayDate": "2019-11-22",
-	"payTime": "2019-10-22",
-	"period": 1,
-	"successAmount": 3333.33,
-	"overdueStatus": 0,
-	"paymentFlowSource": 3,
-	"repaymentDetailList": [{
-		"sourceRepaymentDetailId": "8499103",
-		"payAmount": 3333.00,
-		"planCategory": 1
-	}, {
-		"sourceRepaymentDetailId": "8499103",
-		"repaymentPlanId": "31990321",
-		"payAmount": 0.33,
-		"planCategory": 2
-	}]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/busi/project/queryRepaymentPlan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询当前还款计划接口-正常传参</t>
-    <rPh sb="0" eb="1">
-      <t>cha xun dang qian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>huan kuan ji hua</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jie kou</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zheng chang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "projectId":"10022797191479296"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进件取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/busi/project/cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel" : "jfx",
-  "sourceCode" : "jfx",
-  "sourceProjectId" : "string",
-  "projectId" : "string"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1220,7 +1303,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
@@ -1267,16 +1350,16 @@
     </row>
     <row r="2" spans="1:5" ht="153">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -1323,16 +1406,16 @@
     </row>
     <row r="2" spans="1:5" ht="85">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -1488,13 +1571,13 @@
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5">
         <v>2000</v>
@@ -1541,16 +1624,16 @@
     </row>
     <row r="2" spans="1:5" ht="409.6">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -1622,7 +1705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16A4BC4-836E-A342-933C-B7FC9C1A510B}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1653,16 +1736,16 @@
     </row>
     <row r="2" spans="1:5" ht="102">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" s="5">
         <v>2000</v>
@@ -1679,7 +1762,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1797,7 +1880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49043AE3-6E7F-D149-BFFA-5E9CEA686BC3}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1841,7 +1924,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
@@ -1908,10 +1991,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -1930,7 +2017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="204">
+    <row r="2" spans="1:5" ht="187">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1940,7 +2027,9 @@
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>

--- a/data/jfx_test.xlsx
+++ b/data/jfx_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55E9734-97BA-2F48-9F0A-44498E8100B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E768235-1819-BF40-B787-B6BD6585CD5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="640" windowWidth="23640" windowHeight="15360" activeTab="3" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
+    <workbookView xWindow="4860" yWindow="640" windowWidth="23640" windowHeight="15360" xr2:uid="{62BBC637-C30E-4145-9A9D-8CCCD0B25820}"/>
   </bookViews>
   <sheets>
     <sheet name="credit_apply_data" sheetId="1" r:id="rId1"/>
@@ -1255,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E755CC7-C59C-6F4B-9D9E-EBF4D7EBD7C0}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1880,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49043AE3-6E7F-D149-BFFA-5E9CEA686BC3}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
